--- a/3.공통코드/2.코드테이블.xlsx
+++ b/3.공통코드/2.코드테이블.xlsx
@@ -875,7 +875,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5" x14ac:dyDescent="0.4"/>
